--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.240599</v>
+        <v>0.5762313333333333</v>
       </c>
       <c r="N2">
-        <v>3.721797</v>
+        <v>1.728694</v>
       </c>
       <c r="O2">
-        <v>0.1406788293839749</v>
+        <v>0.07066599920647125</v>
       </c>
       <c r="P2">
-        <v>0.1406788293839749</v>
+        <v>0.07066599920647126</v>
       </c>
       <c r="Q2">
-        <v>0.431561798201</v>
+        <v>0.2004510969242222</v>
       </c>
       <c r="R2">
-        <v>3.884056183809001</v>
+        <v>1.804059872318</v>
       </c>
       <c r="S2">
-        <v>0.1406788293839749</v>
+        <v>0.07066599920647125</v>
       </c>
       <c r="T2">
-        <v>0.1406788293839749</v>
+        <v>0.07066599920647126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.933615666666667</v>
+        <v>3.933615666666666</v>
       </c>
       <c r="N3">
         <v>11.800847</v>
       </c>
       <c r="O3">
-        <v>0.4460558546582182</v>
+        <v>0.4823980674067757</v>
       </c>
       <c r="P3">
-        <v>0.4460558546582182</v>
+        <v>0.4823980674067757</v>
       </c>
       <c r="Q3">
-        <v>1.368369836295445</v>
+        <v>1.368369836295444</v>
       </c>
       <c r="R3">
         <v>12.315328526659</v>
       </c>
       <c r="S3">
-        <v>0.4460558546582182</v>
+        <v>0.4823980674067757</v>
       </c>
       <c r="T3">
-        <v>0.4460558546582182</v>
+        <v>0.4823980674067757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>10.933341</v>
       </c>
       <c r="O4">
-        <v>0.4132653159578069</v>
+        <v>0.446935933386753</v>
       </c>
       <c r="P4">
-        <v>0.4132653159578069</v>
+        <v>0.446935933386753</v>
       </c>
       <c r="Q4">
         <v>1.267777985286333</v>
@@ -694,10 +694,10 @@
         <v>11.410001867577</v>
       </c>
       <c r="S4">
-        <v>0.4132653159578069</v>
+        <v>0.446935933386753</v>
       </c>
       <c r="T4">
-        <v>0.4132653159578069</v>
+        <v>0.446935933386753</v>
       </c>
     </row>
   </sheetData>
